--- a/table_teigi.xlsx
+++ b/table_teigi.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/kadai/kadai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/Design documents/Design-document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{3BDADC00-AC2F-4303-832C-D248CA299144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7560E76C-C460-49B7-9678-1D455456B221}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{3BDADC00-AC2F-4303-832C-D248CA299144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC88A75D-167B-4572-95CB-831E51000CFB}"/>
   <bookViews>
-    <workbookView xWindow="38745" yWindow="4545" windowWidth="17280" windowHeight="9030" tabRatio="855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
     <sheet name="会員" sheetId="164" r:id="rId2"/>
     <sheet name="カレンダー" sheetId="166" r:id="rId3"/>
     <sheet name="設定カレンダー" sheetId="169" r:id="rId4"/>
-    <sheet name="設定" sheetId="167" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
   <si>
     <t>説明／備考</t>
   </si>
@@ -429,129 +428,36 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>対象ディズニー</t>
+    <t>day_kaisi</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>day_owari</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>midashi</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付（開始）</t>
     <rPh sb="0" eb="2">
-      <t>タイショウ</t>
+      <t>ヒヅケ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>閑散期</t>
-    <rPh sb="0" eb="3">
-      <t>カンサンキ</t>
+    <t>日付（終了）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>繁忙期</t>
-    <rPh sb="0" eb="3">
-      <t>ハンボウキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>disney</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>kansan</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>hanbou</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>年（開始）</t>
-    <rPh sb="0" eb="1">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>月（開始）</t>
-    <rPh sb="0" eb="1">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>日（開始）</t>
-    <rPh sb="0" eb="1">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>年（終了）</t>
-    <rPh sb="0" eb="1">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>月（終了）</t>
-    <rPh sb="0" eb="1">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>日（終了）</t>
-    <rPh sb="0" eb="1">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>見出し</t>
-    <rPh sb="0" eb="2">
-      <t>ミダ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>year_kaisi</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>month_kaisi</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>day_kaisi</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>year_owari</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>month_owari</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>day_owari</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>midashi</t>
+    <t>data</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1090,7 +996,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1249,12 +1155,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,6 +1188,66 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1314,66 +1274,6 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2463,20 +2363,20 @@
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="53"/>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="74"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="72"/>
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
       <c r="T8" s="45"/>
@@ -2495,26 +2395,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="48"/>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="81" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="83"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="81"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
@@ -2533,22 +2433,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="48"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="86"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="84"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
       <c r="T10" s="45"/>
@@ -2759,26 +2659,26 @@
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
       <c r="AA17" s="45"/>
       <c r="AB17" s="45"/>
       <c r="AC17" s="45"/>
@@ -2794,24 +2694,24 @@
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
       <c r="AA18" s="45"/>
       <c r="AB18" s="45"/>
       <c r="AC18" s="45"/>
@@ -2827,24 +2727,24 @@
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
       <c r="AB19" s="45"/>
@@ -3072,12 +2972,12 @@
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
-      <c r="F26" s="87">
+      <c r="F26" s="85">
         <v>38487</v>
       </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="89"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="87"/>
       <c r="J26" s="55" t="s">
         <v>36</v>
       </c>
@@ -3733,25 +3633,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3761,27 +3661,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
       <c r="L2" s="6" t="s">
         <v>26</v>
       </c>
@@ -3791,46 +3691,46 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="97"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -3871,10 +3771,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="112" t="s">
+      <c r="L6" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="113"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3919,10 +3819,10 @@
       <c r="K7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="114" t="s">
+      <c r="L7" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="115"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24"/>
       <c r="P7" s="29"/>
@@ -3953,8 +3853,8 @@
       <c r="K8" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -3987,10 +3887,10 @@
       <c r="K9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="116" t="s">
+      <c r="L9" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="117"/>
+      <c r="M9" s="106"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -4021,10 +3921,10 @@
       <c r="K10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="116" t="s">
+      <c r="L10" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="117"/>
+      <c r="M10" s="106"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -4043,8 +3943,8 @@
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="117"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -4063,8 +3963,8 @@
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="117"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
@@ -4083,8 +3983,8 @@
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="34"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
@@ -4103,8 +4003,8 @@
       <c r="I14" s="25"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="34"/>
       <c r="O14" s="24"/>
       <c r="P14" s="29"/>
@@ -4123,8 +4023,8 @@
       <c r="I15" s="25"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="101"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="34"/>
       <c r="O15" s="24"/>
       <c r="P15" s="29"/>
@@ -4143,8 +4043,8 @@
       <c r="I16" s="25"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="34"/>
       <c r="O16" s="24"/>
       <c r="P16" s="29"/>
@@ -4163,8 +4063,8 @@
       <c r="I17" s="25"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="34"/>
       <c r="O17" s="24"/>
       <c r="P17" s="29"/>
@@ -4183,8 +4083,8 @@
       <c r="I18" s="25"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="34"/>
       <c r="O18" s="24"/>
       <c r="P18" s="29"/>
@@ -4203,8 +4103,8 @@
       <c r="I19" s="25"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="34"/>
       <c r="O19" s="24"/>
       <c r="P19" s="29"/>
@@ -4223,8 +4123,8 @@
       <c r="I20" s="25"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="34"/>
       <c r="O20" s="24"/>
       <c r="P20" s="29"/>
@@ -4243,19 +4143,21 @@
       <c r="I21" s="25"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="34"/>
       <c r="O21" s="24"/>
       <c r="P21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -4269,13 +4171,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4288,8 +4188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5E28DD-4915-46B1-A6EA-58023405B9B1}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -4312,25 +4212,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="67" t="s">
         <v>6</v>
       </c>
@@ -4340,27 +4240,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -4370,48 +4270,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="97"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="106" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -4452,10 +4352,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="112" t="s">
+      <c r="L6" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="113"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4500,10 +4400,10 @@
       <c r="K7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="114" t="s">
+      <c r="L7" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="115"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24"/>
       <c r="P7" s="29"/>
@@ -4513,20 +4413,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="26">
-        <v>4</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -4534,8 +4430,8 @@
       <c r="K8" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -4544,21 +4440,17 @@
       <c r="A9" s="32">
         <v>3</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>72</v>
+      <c r="B9" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="26">
-        <v>2</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -4566,8 +4458,8 @@
       <c r="K9" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="106"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -4577,16 +4469,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="26">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="F10" s="27">
         <v>0</v>
@@ -4596,10 +4488,10 @@
       <c r="I10" s="25"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="116"/>
-      <c r="M10" s="117"/>
+        <v>61</v>
+      </c>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -4609,16 +4501,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="26">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="F11" s="27">
         <v>0</v>
@@ -4628,10 +4520,10 @@
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="116"/>
-      <c r="M11" s="117"/>
+        <v>61</v>
+      </c>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -4640,17 +4532,17 @@
       <c r="A12" s="32">
         <v>6</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>75</v>
+      <c r="B12" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="26">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="F12" s="27">
         <v>0</v>
@@ -4660,10 +4552,10 @@
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="116"/>
-      <c r="M12" s="117"/>
+        <v>61</v>
+      </c>
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
@@ -4673,16 +4565,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="26">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="F13" s="27">
         <v>0</v>
@@ -4692,10 +4584,10 @@
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
+        <v>61</v>
+      </c>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="34"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
@@ -4704,30 +4596,18 @@
       <c r="A14" s="32">
         <v>8</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="26">
-        <v>255</v>
-      </c>
-      <c r="F14" s="27">
-        <v>0</v>
-      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="34"/>
       <c r="O14" s="24"/>
       <c r="P14" s="29"/>
@@ -4736,30 +4616,18 @@
       <c r="A15" s="32">
         <v>9</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="26">
-        <v>255</v>
-      </c>
-      <c r="F15" s="27">
-        <v>0</v>
-      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="101"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="34"/>
       <c r="O15" s="24"/>
       <c r="P15" s="29"/>
@@ -4768,30 +4636,18 @@
       <c r="A16" s="32">
         <v>10</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="26">
-        <v>255</v>
-      </c>
-      <c r="F16" s="27">
-        <v>0</v>
-      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="34"/>
       <c r="O16" s="24"/>
       <c r="P16" s="29"/>
@@ -4809,8 +4665,8 @@
       <c r="I17" s="25"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="34"/>
       <c r="O17" s="24"/>
       <c r="P17" s="29"/>
@@ -4829,8 +4685,8 @@
       <c r="I18" s="25"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="34"/>
       <c r="O18" s="24"/>
       <c r="P18" s="29"/>
@@ -4849,8 +4705,8 @@
       <c r="I19" s="25"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="34"/>
       <c r="O19" s="24"/>
       <c r="P19" s="29"/>
@@ -4869,8 +4725,8 @@
       <c r="I20" s="25"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="34"/>
       <c r="O20" s="24"/>
       <c r="P20" s="29"/>
@@ -4889,26 +4745,14 @@
       <c r="I21" s="25"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="34"/>
       <c r="O21" s="24"/>
       <c r="P21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4922,6 +4766,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4934,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B10F452-A912-4316-B3C9-C02B10EED785}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -4958,26 +4814,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="71" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="69" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="65" t="s">
@@ -4986,27 +4842,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -5016,48 +4872,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="97"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="106" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -5082,7 +4938,7 @@
       <c r="E6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="70"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="36" t="s">
         <v>25</v>
       </c>
@@ -5098,10 +4954,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="112" t="s">
+      <c r="L6" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="113"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -5146,10 +5002,10 @@
       <c r="K7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="114" t="s">
+      <c r="L7" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="115"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24"/>
       <c r="P7" s="29"/>
@@ -5159,29 +5015,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="D8" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="26">
-        <v>255</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
+        <v>59</v>
+      </c>
+      <c r="L8" s="107"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -5190,30 +5042,26 @@
       <c r="A9" s="32">
         <v>3</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>71</v>
+      <c r="B9" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="26">
-        <v>100</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
+        <v>59</v>
+      </c>
+      <c r="L9" s="105"/>
+      <c r="M9" s="106"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -5223,16 +5071,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="26">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F10" s="27">
         <v>0</v>
@@ -5244,8 +5092,8 @@
       <c r="K10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="116"/>
-      <c r="M10" s="117"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -5255,16 +5103,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="26">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F11" s="27">
         <v>0</v>
@@ -5276,8 +5124,8 @@
       <c r="K11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="116"/>
-      <c r="M11" s="117"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -5286,30 +5134,18 @@
       <c r="A12" s="32">
         <v>6</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="26">
-        <v>100</v>
-      </c>
-      <c r="F12" s="27">
-        <v>0</v>
-      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="116"/>
-      <c r="M12" s="117"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
@@ -5318,30 +5154,18 @@
       <c r="A13" s="32">
         <v>7</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="26">
-        <v>100</v>
-      </c>
-      <c r="F13" s="27">
-        <v>0</v>
-      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="34"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
@@ -5350,30 +5174,18 @@
       <c r="A14" s="32">
         <v>8</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="26">
-        <v>100</v>
-      </c>
-      <c r="F14" s="27">
-        <v>0</v>
-      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="34"/>
       <c r="O14" s="24"/>
       <c r="P14" s="29"/>
@@ -5382,30 +5194,18 @@
       <c r="A15" s="32">
         <v>9</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="26">
-        <v>255</v>
-      </c>
-      <c r="F15" s="27">
-        <v>0</v>
-      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="101"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="34"/>
       <c r="O15" s="24"/>
       <c r="P15" s="29"/>
@@ -5414,30 +5214,18 @@
       <c r="A16" s="32">
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="26">
-        <v>255</v>
-      </c>
-      <c r="F16" s="27">
-        <v>0</v>
-      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="34"/>
       <c r="O16" s="24"/>
       <c r="P16" s="29"/>
@@ -5456,8 +5244,8 @@
       <c r="I17" s="25"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="34"/>
       <c r="O17" s="24"/>
       <c r="P17" s="29"/>
@@ -5476,8 +5264,8 @@
       <c r="I18" s="25"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="34"/>
       <c r="O18" s="24"/>
       <c r="P18" s="29"/>
@@ -5496,8 +5284,8 @@
       <c r="I19" s="25"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="34"/>
       <c r="O19" s="24"/>
       <c r="P19" s="29"/>
@@ -5516,8 +5304,8 @@
       <c r="I20" s="25"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="34"/>
       <c r="O20" s="24"/>
       <c r="P20" s="29"/>
@@ -5536,594 +5324,8 @@
       <c r="I21" s="25"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-  </mergeCells>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B8D73-9F0F-43A8-A62F-EA32067C39EA}">
-  <dimension ref="A1:P21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:M10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="12" customWidth="1"/>
-    <col min="7" max="8" width="4" style="12" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="4" style="12" customWidth="1"/>
-    <col min="11" max="11" width="9" style="12" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="37">
-        <v>44187</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="97"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="113"/>
-      <c r="N6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A7" s="22">
-        <v>1</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="26">
-        <v>100</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="114" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="115"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="29"/>
-    </row>
-    <row r="8" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A8" s="31">
-        <v>2</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="26">
-        <v>255</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="32">
-        <v>3</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="26">
-        <v>100</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="29"/>
-    </row>
-    <row r="10" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="32">
-        <v>4</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="26">
-        <v>100</v>
-      </c>
-      <c r="F10" s="27">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="116"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="29"/>
-    </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A11" s="32">
-        <v>5</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="26">
-        <v>255</v>
-      </c>
-      <c r="F11" s="27">
-        <v>0</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="116"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="32">
-        <v>6</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="29"/>
-    </row>
-    <row r="13" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A13" s="32">
-        <v>7</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="14" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="32">
-        <v>8</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="29"/>
-    </row>
-    <row r="15" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="32">
-        <v>9</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="29"/>
-    </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A16" s="32">
-        <v>10</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="29"/>
-    </row>
-    <row r="17" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="32">
-        <v>11</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="29"/>
-    </row>
-    <row r="18" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="32">
-        <v>12</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="29"/>
-    </row>
-    <row r="19" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A19" s="32">
-        <v>13</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="29"/>
-    </row>
-    <row r="20" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A20" s="32">
-        <v>14</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A21" s="32">
-        <v>15</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="34"/>
       <c r="O21" s="24"/>
       <c r="P21" s="29"/>

--- a/table_teigi.xlsx
+++ b/table_teigi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/Design documents/Design-document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{3BDADC00-AC2F-4303-832C-D248CA299144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC88A75D-167B-4572-95CB-831E51000CFB}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{3BDADC00-AC2F-4303-832C-D248CA299144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1024599F-3FFE-4DC0-862C-7B04390F1F37}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
   <si>
     <t>説明／備考</t>
   </si>
@@ -458,6 +458,65 @@
   </si>
   <si>
     <t>data</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>setting_delete_flg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>yotei_delete_flg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>account_delete_flg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>削除日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>account_delete_time</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>datetime</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -3609,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3879,9 +3938,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="25" t="s">
-        <v>58</v>
-      </c>
+      <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
@@ -3933,16 +3990,28 @@
       <c r="A11" s="32">
         <v>5</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="B11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="26">
+        <v>2</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="L11" s="105"/>
       <c r="M11" s="106"/>
       <c r="N11" s="28"/>
@@ -3953,16 +4022,24 @@
       <c r="A12" s="32">
         <v>6</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="E12" s="26"/>
       <c r="F12" s="27"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="L12" s="105"/>
       <c r="M12" s="106"/>
       <c r="N12" s="28"/>
@@ -3973,16 +4050,24 @@
       <c r="A13" s="32">
         <v>7</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="L13" s="89"/>
       <c r="M13" s="90"/>
       <c r="N13" s="34"/>
@@ -3993,16 +4078,24 @@
       <c r="A14" s="32">
         <v>8</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="27"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="L14" s="89"/>
       <c r="M14" s="90"/>
       <c r="N14" s="34"/>
@@ -4188,8 +4281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5E28DD-4915-46B1-A6EA-58023405B9B1}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:M16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -4596,16 +4689,28 @@
       <c r="A14" s="32">
         <v>8</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="L14" s="89"/>
       <c r="M14" s="90"/>
       <c r="N14" s="34"/>
@@ -4791,7 +4896,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L12" sqref="L12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -5134,16 +5239,28 @@
       <c r="A12" s="32">
         <v>6</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="26">
+        <v>2</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="L12" s="105"/>
       <c r="M12" s="106"/>
       <c r="N12" s="28"/>
